--- a/data/trans_dic/P1422-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1422-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.01745473400422815</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.01177279894470364</v>
+        <v>0.01177279894470365</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.003496745605507802</v>
@@ -655,7 +655,7 @@
         <v>0.01302243715748383</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.005275292202306847</v>
+        <v>0.005275292202306846</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.005396969197045362</v>
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008242005940690321</v>
+        <v>0.007428399188540856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004804937806092717</v>
+        <v>0.005141889446263477</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0034589026036706</v>
+        <v>0.003481376327358357</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001325479378564465</v>
+        <v>0.001326672131542295</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.001268066727435304</v>
+        <v>0.001450353016933957</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006961044869071454</v>
+        <v>0.007462170605878261</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004375254561943408</v>
+        <v>0.004297051598048131</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02564290979612616</v>
+        <v>0.02823276837337928</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03597447605843655</v>
+        <v>0.03933022199910421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02345735188847123</v>
+        <v>0.02399278916411022</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01767089074671779</v>
+        <v>0.02221720886048083</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03844038707729307</v>
+        <v>0.03730722887301809</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01367653554794259</v>
+        <v>0.01318473415283914</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01691314998151505</v>
+        <v>0.01590826513061545</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02661770535224824</v>
+        <v>0.02754281635356494</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01544530105792144</v>
+        <v>0.0165148332358364</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.005680647527218177</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01456899299138301</v>
+        <v>0.014568992991383</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.007277433502885568</v>
+        <v>0.007277433502885569</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.001360407305019411</v>
@@ -790,12 +790,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006952294152669907</v>
+        <v>0.006990400206863245</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.002800558023564249</v>
+        <v>0.002939308900010238</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005799376748830519</v>
+        <v>0.006333677268495778</v>
       </c>
     </row>
     <row r="9">
@@ -815,27 +815,27 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01247180169141032</v>
+        <v>0.0123815329376978</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01956005483577554</v>
+        <v>0.01986749650319006</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02673186091802919</v>
+        <v>0.02761146684523608</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.01608243748884738</v>
+        <v>0.01564854252366575</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007621377159264802</v>
+        <v>0.006479762494880975</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01009946501675546</v>
+        <v>0.008670908505132057</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01793451012577347</v>
+        <v>0.01784570080145454</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005110157510334183</v>
+        <v>0.006173729411550235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001491916897572904</v>
+        <v>0.001495716037100243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01428982604173749</v>
+        <v>0.01485846883833067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003999756418483249</v>
+        <v>0.004049200451081882</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006020763825346553</v>
+        <v>0.006795319086183598</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006334639968323613</v>
+        <v>0.006882936214006539</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002528929864770953</v>
+        <v>0.002862786078432509</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01389590273414056</v>
+        <v>0.01438091654454683</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02818788445153785</v>
+        <v>0.02882486850552523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01433442508461393</v>
+        <v>0.01513472760325083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0429750707632383</v>
+        <v>0.04241518331920714</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03397836449260525</v>
+        <v>0.03622978018763494</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04511332162824401</v>
+        <v>0.05182410810291677</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03678702914721727</v>
+        <v>0.04051202168335578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02442635719672633</v>
+        <v>0.02384543936102595</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01742604205540241</v>
+        <v>0.01744545559991414</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03499560037450264</v>
+        <v>0.03770396988320142</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.003624989720273479</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.009057615610690102</v>
+        <v>0.009057615610690104</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007710236457040733</v>
+        <v>0.007046997308655763</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00163910514149366</v>
+        <v>0.001580007752170775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006545542493640845</v>
+        <v>0.006703219594288576</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002629903744729638</v>
+        <v>0.002560568534946411</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.003463407868663388</v>
+        <v>0.003490490666112107</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006712551573923997</v>
+        <v>0.00668324081726876</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.001681891697740403</v>
+        <v>0.00150238410162675</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00582507849068092</v>
+        <v>0.006012244835790399</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02245933210990989</v>
+        <v>0.02153098969798032</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01050835821428047</v>
+        <v>0.009145206700709863</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01722568866373888</v>
+        <v>0.01763368262301191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01482708658062074</v>
+        <v>0.01483531631164762</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01029486197638738</v>
+        <v>0.01028153744341971</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01124408053150654</v>
+        <v>0.01167743055967617</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01651445932276656</v>
+        <v>0.0166022983373182</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.007077821213256816</v>
+        <v>0.007916312176950154</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01259200795173392</v>
+        <v>0.01288202493968192</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004032688344378531</v>
+        <v>0.003835247340487776</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001296530800756422</v>
+        <v>0.001552962039820628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005281361007756614</v>
+        <v>0.005261525563305213</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002763845797235633</v>
+        <v>0.002661365201169955</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.002937379614574568</v>
+        <v>0.002938088672538717</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.006978388121102842</v>
+        <v>0.007603115005498364</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004204258343227574</v>
+        <v>0.004389377505973712</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.003542521323569742</v>
+        <v>0.00346897135898169</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008012063356152847</v>
+        <v>0.008222470369197125</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02353964851379444</v>
+        <v>0.02308010930023822</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01306713244238502</v>
+        <v>0.01346679043542139</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02208315899877582</v>
+        <v>0.02164542154297639</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01746212909446222</v>
+        <v>0.01612354176802685</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01740422686985016</v>
+        <v>0.01794411564435689</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01784102904890603</v>
+        <v>0.01868616352507086</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01534332258750614</v>
+        <v>0.0159358830541631</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01249419327431873</v>
+        <v>0.01319699686678317</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01700681779878502</v>
+        <v>0.01728297734205601</v>
       </c>
     </row>
     <row r="19">
@@ -1192,7 +1192,7 @@
         <v>0.004681361194272818</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.01610999459826495</v>
+        <v>0.01610999459826496</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.007505429274671252</v>
@@ -1219,22 +1219,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.004585180761997256</v>
+        <v>0.004635129868978767</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.001099589828519354</v>
+        <v>0.001026848565317882</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01036028895700624</v>
+        <v>0.009638551605882744</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003767834489378077</v>
+        <v>0.003730830523669828</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.001476133162656803</v>
+        <v>0.001430376995381817</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.00803358592056312</v>
+        <v>0.008208537740453938</v>
       </c>
     </row>
     <row r="21">
@@ -1246,28 +1246,28 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01710830093949458</v>
+        <v>0.01668231471903091</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01557651725778758</v>
+        <v>0.01515143585122269</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01603395428609861</v>
+        <v>0.01768335728204382</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0111243209949245</v>
+        <v>0.01184118118968566</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0258409413764666</v>
+        <v>0.02562529245131669</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01382880659336374</v>
+        <v>0.01360662083338326</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0105497248066287</v>
+        <v>0.009874805913595786</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01971333030191979</v>
+        <v>0.02078405217235621</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006649770757615722</v>
+        <v>0.006866140921439828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004180287299158546</v>
+        <v>0.004080824788931623</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.009904629320787475</v>
+        <v>0.009968892948735259</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.004804964626365753</v>
+        <v>0.004791413920744744</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003585343343742901</v>
+        <v>0.003467958631502953</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.008004290579747523</v>
+        <v>0.008049691806614004</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.006161358352288164</v>
+        <v>0.006375317243467024</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.004418591854358096</v>
+        <v>0.004510396495252129</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.009669533477158576</v>
+        <v>0.009704395470653845</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01433946165015787</v>
+        <v>0.01428737142607446</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.009598728064571339</v>
+        <v>0.0093000414876889</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0169917483218988</v>
+        <v>0.01707322744929021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01080345875390369</v>
+        <v>0.01028081830851348</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.009584044488592427</v>
+        <v>0.009480086113727073</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01298986548184088</v>
+        <v>0.01349229627363869</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01064456183130414</v>
+        <v>0.01109406533064141</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.008153551846228247</v>
+        <v>0.008311899868541962</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01434999855534578</v>
+        <v>0.01413157319829513</v>
       </c>
     </row>
     <row r="25">
@@ -1610,28 +1610,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3537</v>
+        <v>3187</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2646</v>
+        <v>2831</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>953</v>
+        <v>1090</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5403</v>
+        <v>5792</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4546</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="7">
@@ -1642,31 +1642,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11211</v>
+        <v>12344</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15436</v>
+        <v>16876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12916</v>
+        <v>13211</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5557</v>
+        <v>6986</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13341</v>
+        <v>12948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6680</v>
+        <v>6440</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12713</v>
+        <v>11958</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20659</v>
+        <v>21377</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16048</v>
+        <v>17159</v>
       </c>
     </row>
     <row r="8">
@@ -1757,12 +1757,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3353</v>
+        <v>3371</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>1183</v>
+        <v>1242</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5247</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="11">
@@ -1782,27 +1782,27 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5223</v>
+        <v>5185</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7379</v>
+        <v>7495</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12893</v>
+        <v>13317</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>6795</v>
+        <v>6611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5768</v>
+        <v>4904</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7570</v>
+        <v>6499</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>16227</v>
+        <v>16146</v>
       </c>
     </row>
     <row r="12">
@@ -1887,31 +1887,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3216</v>
+        <v>3886</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6727</v>
+        <v>6995</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1129</v>
+        <v>1274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5635</v>
+        <v>6123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1740</v>
+        <v>1970</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9147</v>
+        <v>9466</v>
       </c>
     </row>
     <row r="15">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17742</v>
+        <v>18143</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7481</v>
+        <v>7899</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20230</v>
+        <v>19967</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8839</v>
+        <v>9424</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7494</v>
+        <v>8609</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6897</v>
+        <v>7596</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21728</v>
+        <v>21212</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11990</v>
+        <v>12003</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23036</v>
+        <v>24818</v>
       </c>
     </row>
     <row r="16">
@@ -2031,31 +2031,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8936</v>
+        <v>8168</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1884</v>
+        <v>1816</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7402</v>
+        <v>7581</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2011</v>
+        <v>1958</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2983</v>
+        <v>3006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12913</v>
+        <v>12857</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3323</v>
+        <v>2968</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11604</v>
+        <v>11977</v>
       </c>
     </row>
     <row r="19">
@@ -2066,31 +2066,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26031</v>
+        <v>24955</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12081</v>
+        <v>10514</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19481</v>
+        <v>19942</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11339</v>
+        <v>11345</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8502</v>
+        <v>8491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9684</v>
+        <v>10057</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31769</v>
+        <v>31938</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13982</v>
+        <v>15639</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25085</v>
+        <v>25663</v>
       </c>
     </row>
     <row r="20">
@@ -2175,31 +2175,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2059</v>
+        <v>1958</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>805</v>
+        <v>964</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2994</v>
+        <v>2983</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2101</v>
+        <v>2023</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>2169</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5783</v>
+        <v>6301</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5343</v>
+        <v>5578</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4814</v>
+        <v>4714</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11183</v>
+        <v>11476</v>
       </c>
     </row>
     <row r="23">
@@ -2210,31 +2210,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12019</v>
+        <v>11785</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8111</v>
+        <v>8359</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12521</v>
+        <v>12272</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13276</v>
+        <v>12258</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>12849</v>
+        <v>13247</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14786</v>
+        <v>15486</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19499</v>
+        <v>20252</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>16979</v>
+        <v>17934</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>23737</v>
+        <v>24122</v>
       </c>
     </row>
     <row r="24">
@@ -2326,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5087</v>
+        <v>5142</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1190</v>
+        <v>1111</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>8740</v>
+        <v>8131</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5185</v>
+        <v>5134</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2021</v>
+        <v>1958</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8683</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="27">
@@ -2353,28 +2353,28 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4913</v>
+        <v>4790</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3695</v>
+        <v>3594</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17787</v>
+        <v>19617</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12037</v>
+        <v>12812</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>21799</v>
+        <v>21617</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19032</v>
+        <v>18726</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>14444</v>
+        <v>13520</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>21307</v>
+        <v>22464</v>
       </c>
     </row>
     <row r="28">
@@ -2459,31 +2459,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22755</v>
+        <v>23495</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14153</v>
+        <v>13817</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>34060</v>
+        <v>34281</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17043</v>
+        <v>16995</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>12662</v>
+        <v>12247</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>29071</v>
+        <v>29236</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>42937</v>
+        <v>44428</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>30565</v>
+        <v>31200</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>68371</v>
+        <v>68617</v>
       </c>
     </row>
     <row r="31">
@@ -2494,31 +2494,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>49068</v>
+        <v>48890</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32499</v>
+        <v>31487</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>58431</v>
+        <v>58711</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>38319</v>
+        <v>36465</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>33847</v>
+        <v>33480</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>47179</v>
+        <v>49003</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>74180</v>
+        <v>77313</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>56401</v>
+        <v>57496</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>101465</v>
+        <v>99921</v>
       </c>
     </row>
     <row r="32">
